--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\clone\breastCancer\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E84E9-F3A2-45BD-9693-540DEA784963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B37A8-D21E-4DEF-BB77-040CA11DA587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63E41559-0517-4B82-BF4B-85987E553A94}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,14 +87,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,15 +434,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -437,18 +466,18 @@
       <c r="G2" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>285</v>
       </c>
     </row>
